--- a/reg/profit.xlsx
+++ b/reg/profit.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,19 +44,19 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">9.916***</t>
+    <t xml:space="preserve">10.156***</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">7.154***</t>
+    <t xml:space="preserve">7.750***</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(1.694)</t>
+    <t xml:space="preserve">(1.665)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.000)</t>
@@ -65,88 +65,97 @@
     <t xml:space="preserve">LIDSD_INST</t>
   </si>
   <si>
-    <t xml:space="preserve">6.948***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.572***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.195)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.096)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.074)</t>
+    <t xml:space="preserve">5.836***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.808***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.201)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.177)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.573)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_LABOUR</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.902***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.394)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.437)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.504)</t>
+    <t xml:space="preserve">-0.207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.736***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.387)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.492)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.578)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_BUSINESS</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.061***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.501*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.237)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.222)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.228)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.194)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.167)</t>
+    <t xml:space="preserve">0.428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.458***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.295)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.101)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.105)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_MARKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.687*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.574***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.560***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.090)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.027)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.010)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -161,25 +170,25 @@
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.607</t>
+    <t xml:space="preserve">0.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.682</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.011</t>
+    <t xml:space="preserve">0.243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197</t>
   </si>
 </sst>
 </file>
@@ -729,16 +738,16 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -752,70 +761,70 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -824,13 +833,13 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/reg/profit.xlsx
+++ b/reg/profit.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,19 +44,19 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">10.156***</t>
+    <t xml:space="preserve">11.601***</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">7.750***</t>
+    <t xml:space="preserve">11.730***</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(1.665)</t>
+    <t xml:space="preserve">(1.849)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.000)</t>
@@ -65,97 +65,187 @@
     <t xml:space="preserve">LIDSD_INST</t>
   </si>
   <si>
-    <t xml:space="preserve">5.836***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.808***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.201)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.177)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.573)</t>
+    <t xml:space="preserve">4.837***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.205***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.373+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.214)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.134)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.805)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_INFRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.581+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.302)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.320)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.285)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_ICT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.580)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.391)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_SKILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.415**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.219***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.446***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.698)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.199)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_LABOUR</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.736***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.387)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.492)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.578)</t>
+    <t xml:space="preserve">-0.221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.295***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.444)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.137)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.390)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_MARKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.410***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.509***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.103)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.049)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.059)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_BUSINESS</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.458***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.295)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.101)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.105)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_MARKET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.687*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.574***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.560***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.090)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.027)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.010)</t>
+    <t xml:space="preserve">0.543+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.421***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.309)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.075)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_INNOVATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.211+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.490***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.282*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.127)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.197)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.120)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -164,31 +254,31 @@
     <t xml:space="preserve">Num.Obs.</t>
   </si>
   <si>
-    <t xml:space="preserve">479</t>
+    <t xml:space="preserve">463</t>
   </si>
   <si>
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.682</t>
+    <t xml:space="preserve">0.136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197</t>
+    <t xml:space="preserve">0.298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241</t>
   </si>
 </sst>
 </file>
@@ -718,13 +808,13 @@
         <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -732,22 +822,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -755,56 +845,56 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
         <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
       </c>
       <c r="F12" t="s">
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
@@ -813,33 +903,217 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
         <v>54</v>
-      </c>
-      <c r="G13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
       </c>
       <c r="E14" t="s">
         <v>57</v>
       </c>
       <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>58</v>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
